--- a/英文问答表.xlsx
+++ b/英文问答表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>问题</t>
   </si>
@@ -145,6 +145,27 @@
     <t>Dear XXX Team,
 Could you please advise if there is any update available?
 Thanks for your assistance.
+Best regards,</t>
+  </si>
+  <si>
+    <t>催账单</t>
+  </si>
+  <si>
+    <t>【标题】Request for 月份 Invoice
+【正文】Hi XXX Team,
+Hope this email finds you well.
+Could you please kindly provide the shipping fee invoice for 月份? We need it for accounting and settlement purposes.
+If there is any additional information required from our side, please feel free to let us know.
+Thank you for your assistance.
+Best regards,</t>
+  </si>
+  <si>
+    <t>账单申诉-重量差异</t>
+  </si>
+  <si>
+    <t>We hope this email finds you well.
+Please disregard our previous message. Kindly refer to the attached document for the correct information: we need your assistance to verify the weight discrepancies involving XX orders, with a total amount of XX.
+Thank you for your prompt attention to these matters. We look forward to your reply.
 Best regards,</t>
   </si>
 </sst>
@@ -1076,10 +1097,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1168,6 +1189,22 @@
       </c>
       <c r="B10" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
